--- a/data/hotels_by_city/Dallas/Dallas_shard_543.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_543.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,243 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r294068030-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>30162</t>
+  </si>
+  <si>
+    <t>672792</t>
+  </si>
+  <si>
+    <t>294068030</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>What a Relief!</t>
+  </si>
+  <si>
+    <t>We were so relieved and pleased to  find this place. When we travel we have no choice but to limit the money we spend on accommodations. Because of that we sometimes get real dives. Sometimes though we get really lucky and find a gem like this place. First of all everything was clean and in good repair. Front desk staff professional and friendly. Lobby is a real lobby with seating and guest use computer. The beds were comfortable. They offer a very nice breakfast including hot items. The owners/staff should pat themselves on the back - this place is awesome.  Only issue was we could not get internet (in our room or in the lobby leading me to believe there is a problem was no connection on the hotels side. It wasn't important enough to try and resolve - we were too tired. Would most certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were so relieved and pleased to  find this place. When we travel we have no choice but to limit the money we spend on accommodations. Because of that we sometimes get real dives. Sometimes though we get really lucky and find a gem like this place. First of all everything was clean and in good repair. Front desk staff professional and friendly. Lobby is a real lobby with seating and guest use computer. The beds were comfortable. They offer a very nice breakfast including hot items. The owners/staff should pat themselves on the back - this place is awesome.  Only issue was we could not get internet (in our room or in the lobby leading me to believe there is a problem was no connection on the hotels side. It wasn't important enough to try and resolve - we were too tired. Would most certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r227283930-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>227283930</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Tight Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The accommodations are typical Days Inn -- clean and comfy. I had an issue printing out tickets to a Longhorns game and the staff was very helpful. I worked out my printing challenge with their help and got moving. Would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r200101056-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>200101056</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Uncomfortable experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average service, but, will not stay here again unless it is an emergency. Toilet not working! Really?! Towels like thin sandpaper. Dusty areas behind nightstand &amp; around commode. Part of an orange peel by the commode from previous guests. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r184922834-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>184922834</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>My Monthly Stay</t>
+  </si>
+  <si>
+    <t>I stay at this location every month because my husband is located in a facility nearby. I travel alone most of the time and I feel very safe at this location. It is in a perfect location to restaurants, the highway, and not very far from nearby attractions. The cleanliness of this location meets my standards and I do not have to worry about leaving my personal items behind while I am out of the room. I have never had any problems with my belongings missing or have had any problems with the staff addressing small issues in a timely matter. Small issues such as the fire alarm running out of batteries or turning on the heater for the first time and having the fire alarm set off. I look forward to staying hear for as long as my husband is located nearby. I get more for the price I pay and the staff is very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>jitendra p, Manager at Motel 6, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I stay at this location every month because my husband is located in a facility nearby. I travel alone most of the time and I feel very safe at this location. It is in a perfect location to restaurants, the highway, and not very far from nearby attractions. The cleanliness of this location meets my standards and I do not have to worry about leaving my personal items behind while I am out of the room. I have never had any problems with my belongings missing or have had any problems with the staff addressing small issues in a timely matter. Small issues such as the fire alarm running out of batteries or turning on the heater for the first time and having the fire alarm set off. I look forward to staying hear for as long as my husband is located nearby. I get more for the price I pay and the staff is very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r180694522-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>180694522</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Days Inn Alvarado, TX</t>
+  </si>
+  <si>
+    <t>Calling 1-800 Days Inn was not good, very slow but when I called Alvarado direct my reservations were confirmed very fast and correct. Arrival / Check In was fast and courteious very clean lobby and room was very functional for work environment.Will stay here again on future business trips.THANKS,MikeMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Calling 1-800 Days Inn was not good, very slow but when I called Alvarado direct my reservations were confirmed very fast and correct. Arrival / Check In was fast and courteious very clean lobby and room was very functional for work environment.Will stay here again on future business trips.THANKS,MikeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r178351638-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>178351638</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r172444337-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>172444337</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>This is almost a 5 star hotel at 1 star prices</t>
+  </si>
+  <si>
+    <t>Excellent hotel. I stayed 1 nite in the middle of the week to find out how they treat you at check inn  and at check out. Excellent service. Clean room and working plumbing. Noise level very good too. Yes the lobby stinks to high hell of India but your stay isn't in the lobby. It's the room and it smells good. I came back 2 days later and stayed 4 more days. Just as good. The only reason I didn't put 5 star was cause the curtain covers the a/c vent so the air blows up the curtain then into the room. I fixed it with a clamp but how many people carry clamps. It says truck parking but I wouldn't recommend it. Pretty tight for a 53' trailer. Has a dairy Queen in front of the hotel and a Sonic.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Excellent hotel. I stayed 1 nite in the middle of the week to find out how they treat you at check inn  and at check out. Excellent service. Clean room and working plumbing. Noise level very good too. Yes the lobby stinks to high hell of India but your stay isn't in the lobby. It's the room and it smells good. I came back 2 days later and stayed 4 more days. Just as good. The only reason I didn't put 5 star was cause the curtain covers the a/c vent so the air blows up the curtain then into the room. I fixed it with a clamp but how many people carry clamps. It says truck parking but I wouldn't recommend it. Pretty tight for a 53' trailer. Has a dairy Queen in front of the hotel and a Sonic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r170469112-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>170469112</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>My wife and I recently had vehicle trouble on I-35W near Alvarado. There were no taxis in the area to give us a ride to a motel, so we called the Days Inn and they were more than happy to come pick us up. The gentleman who gave us a ride refused pay and was very polite and friendly. Once at the motel we were impressed with the reasonable prices and clean rooms. The breakfast was hot and included in the room fee. Overall, we feel that the nice people at the Alvarado Days Inn went above and beyond their duty to help us when we were in need. For this we are very grateful. If you ever want to stay somewhere near Fort Worth where you know the owners are good, people. Make sure to take exit 26A on Interstate 35W and get a room here. You won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My wife and I recently had vehicle trouble on I-35W near Alvarado. There were no taxis in the area to give us a ride to a motel, so we called the Days Inn and they were more than happy to come pick us up. The gentleman who gave us a ride refused pay and was very polite and friendly. Once at the motel we were impressed with the reasonable prices and clean rooms. The breakfast was hot and included in the room fee. Overall, we feel that the nice people at the Alvarado Days Inn went above and beyond their duty to help us when we were in need. For this we are very grateful. If you ever want to stay somewhere near Fort Worth where you know the owners are good, people. Make sure to take exit 26A on Interstate 35W and get a room here. You won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r169735431-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>169735431</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r157872821-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>157872821</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>The management was very helpful</t>
+  </si>
+  <si>
+    <t>I booked my stay through Expedia and their description of the room was not accurate. I spent 2 hours on the phone with them trying to fix the problem and the manager of the hotel was kind enough to work with me and help out.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I booked my stay through Expedia and their description of the room was not accurate. I spent 2 hours on the phone with them trying to fix the problem and the manager of the hotel was kind enough to work with me and help out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r152816402-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>152816402</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r146019061-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>146019061</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Upon checking in at the front desk the whole reception area reeked of curry. Very stro ng and very offensive. I stayed three nights and two of the days that I went by the front desk and reception area I could smell these odors. My bedspread also had a very stong urine odor which I had to call down and have them replace. There was only one chair in my king room which meant only one of us could watch tv from a chair, the other person had to use the bed. Very uncomfortable. TV had a lot of static and you could not watch all chanels. You guys can do better. Next time Holiday Inn for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Upon checking in at the front desk the whole reception area reeked of curry. Very stro ng and very offensive. I stayed three nights and two of the days that I went by the front desk and reception area I could smell these odors. My bedspread also had a very stong urine odor which I had to call down and have them replace. There was only one chair in my king room which meant only one of us could watch tv from a chair, the other person had to use the bed. Very uncomfortable. TV had a lot of static and you could not watch all chanels. You guys can do better. Next time Holiday Inn for me.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +882,788 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>69</v>
+      </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>69</v>
+      </c>
+      <c r="X11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_543.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_543.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>JenInSeguin</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>We were so relieved and pleased to  find this place. When we travel we have no choice but to limit the money we spend on accommodations. Because of that we sometimes get real dives. Sometimes though we get really lucky and find a gem like this place. First of all everything was clean and in good repair. Front desk staff professional and friendly. Lobby is a real lobby with seating and guest use computer. The beds were comfortable. They offer a very nice breakfast including hot items. The owners/staff should pat themselves on the back - this place is awesome.  Only issue was we could not get internet (in our room or in the lobby leading me to believe there is a problem was no connection on the hotels side. It wasn't important enough to try and resolve - we were too tired. Would most certainly stay here again.More</t>
   </si>
   <si>
+    <t>Cesar L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r227283930-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t xml:space="preserve">The accommodations are typical Days Inn -- clean and comfy. I had an issue printing out tickets to a Longhorns game and the staff was very helpful. I worked out my printing challenge with their help and got moving. Would definitely stay here again. </t>
   </si>
   <si>
+    <t>Iamadoor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r200101056-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t xml:space="preserve">Average service, but, will not stay here again unless it is an emergency. Toilet not working! Really?! Towels like thin sandpaper. Dusty areas behind nightstand &amp; around commode. Part of an orange peel by the commode from previous guests. </t>
   </si>
   <si>
+    <t>YVONNEV005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r184922834-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>I stay at this location every month because my husband is located in a facility nearby. I travel alone most of the time and I feel very safe at this location. It is in a perfect location to restaurants, the highway, and not very far from nearby attractions. The cleanliness of this location meets my standards and I do not have to worry about leaving my personal items behind while I am out of the room. I have never had any problems with my belongings missing or have had any problems with the staff addressing small issues in a timely matter. Small issues such as the fire alarm running out of batteries or turning on the heater for the first time and having the fire alarm set off. I look forward to staying hear for as long as my husband is located nearby. I get more for the price I pay and the staff is very friendly.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r180694522-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>Calling 1-800 Days Inn was not good, very slow but when I called Alvarado direct my reservations were confirmed very fast and correct. Arrival / Check In was fast and courteious very clean lobby and room was very functional for work environment.Will stay here again on future business trips.THANKS,MikeMore</t>
   </si>
   <si>
+    <t>Brett B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r178351638-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Dean W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r172444337-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>Excellent hotel. I stayed 1 nite in the middle of the week to find out how they treat you at check inn  and at check out. Excellent service. Clean room and working plumbing. Noise level very good too. Yes the lobby stinks to high hell of India but your stay isn't in the lobby. It's the room and it smells good. I came back 2 days later and stayed 4 more days. Just as good. The only reason I didn't put 5 star was cause the curtain covers the a/c vent so the air blows up the curtain then into the room. I fixed it with a clamp but how many people carry clamps. It says truck parking but I wouldn't recommend it. Pretty tight for a 53' trailer. Has a dairy Queen in front of the hotel and a Sonic.More</t>
   </si>
   <si>
+    <t>orlandomanagua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r170469112-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>My wife and I recently had vehicle trouble on I-35W near Alvarado. There were no taxis in the area to give us a ride to a motel, so we called the Days Inn and they were more than happy to come pick us up. The gentleman who gave us a ride refused pay and was very polite and friendly. Once at the motel we were impressed with the reasonable prices and clean rooms. The breakfast was hot and included in the room fee. Overall, we feel that the nice people at the Alvarado Days Inn went above and beyond their duty to help us when we were in need. For this we are very grateful. If you ever want to stay somewhere near Fort Worth where you know the owners are good, people. Make sure to take exit 26A on Interstate 35W and get a room here. You won't be disappointed.More</t>
   </si>
   <si>
+    <t>CheerRah22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r169735431-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>07/29/2013</t>
   </si>
   <si>
+    <t>Charles V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r157872821-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>I booked my stay through Expedia and their description of the room was not accurate. I spent 2 hours on the phone with them trying to fix the problem and the manager of the hotel was kind enough to work with me and help out.More</t>
   </si>
   <si>
+    <t>Troy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r152816402-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -361,6 +394,9 @@
   </si>
   <si>
     <t>More</t>
+  </si>
+  <si>
+    <t>JENNIFER W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r146019061-Motel_6-Alvarado_Texas.html</t>
@@ -886,34 +922,38 @@
       <c r="A2" t="n">
         <v>56721</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -932,41 +972,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56721</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -985,41 +1029,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56721</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -1048,50 +1096,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56721</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1113,56 +1165,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56721</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1184,41 +1240,45 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56721</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>21810</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1226,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
         <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1250,51 +1310,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56721</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1316,56 +1377,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56721</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1387,41 +1452,45 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56721</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1429,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1453,51 +1522,52 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56721</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>32740</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1519,54 +1589,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56721</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>59410</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1588,56 +1662,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56721</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1661,7 +1739,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_543.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_543.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>JenInSeguin</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r540170767-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>30162</t>
+  </si>
+  <si>
+    <t>672792</t>
+  </si>
+  <si>
+    <t>540170767</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Nice for price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is clean and has a comfortable bed. Just stayed for 1 night so no comment on the amenities but it works well for a quick overnight stay. For $50 you would be hard pressed to find better. Easy access on:off I35w and hwy 67. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r475455219-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>475455219</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>What is up with the pool?</t>
+  </si>
+  <si>
+    <t>The room is nice enough but a few things are lacking. The main thing is the pool. There is a sign on the window at the office entrance dated August 11, 2015, and it says the pool is closed. The pool has been closed for more than a year and a half yet it is still advertised as an amenity. What is more puzzling is it is being serviced weekly by a contractor - why if no one can get in it???</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r294068030-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
-    <t>30162</t>
-  </si>
-  <si>
-    <t>672792</t>
-  </si>
-  <si>
     <t>294068030</t>
   </si>
   <si>
@@ -177,9 +216,6 @@
     <t>We were so relieved and pleased to  find this place. When we travel we have no choice but to limit the money we spend on accommodations. Because of that we sometimes get real dives. Sometimes though we get really lucky and find a gem like this place. First of all everything was clean and in good repair. Front desk staff professional and friendly. Lobby is a real lobby with seating and guest use computer. The beds were comfortable. They offer a very nice breakfast including hot items. The owners/staff should pat themselves on the back - this place is awesome.  Only issue was we could not get internet (in our room or in the lobby leading me to believe there is a problem was no connection on the hotels side. It wasn't important enough to try and resolve - we were too tired. Would most certainly stay here again.More</t>
   </si>
   <si>
-    <t>Cesar L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r227283930-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -195,9 +231,6 @@
     <t xml:space="preserve">The accommodations are typical Days Inn -- clean and comfy. I had an issue printing out tickets to a Longhorns game and the staff was very helpful. I worked out my printing challenge with their help and got moving. Would definitely stay here again. </t>
   </si>
   <si>
-    <t>Iamadoor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r200101056-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -213,7 +246,46 @@
     <t xml:space="preserve">Average service, but, will not stay here again unless it is an emergency. Toilet not working! Really?! Towels like thin sandpaper. Dusty areas behind nightstand &amp; around commode. Part of an orange peel by the commode from previous guests. </t>
   </si>
   <si>
-    <t>YVONNEV005</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r197656934-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>197656934</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>was ready for the same o same o poor service and dirty rooms.</t>
+  </si>
+  <si>
+    <t>work for the railroad, so of course we live on the road. a place to call home is VERY important to us. read the reviews before traveling here and was ready for the worst. WOW, I LOVE THIS PLACE. rooms are clean, up-dated, only complaint was the entrance was hard to see and passed it twice, but once there, was well worth the trouble. don't care what you saw on old reviews, this is a great place and WILL STAY HERE AGAIN. hope the new owners keep up the great job to turn it around. GOT TO GIVE CREDIT WHERE IT IS DUE.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r193212300-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>193212300</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Days Inn Disaster</t>
+  </si>
+  <si>
+    <t>I have stopped using Days Inn where possible as it is a roulette game on quality, this one was fine, decent internet, good nights sleep and reasonably furnished, where it was a disaster was the reception, awful, unprofessional and a complete lack of customer care. I handed my company debit card and instantly told it was rejected, no thought of delivering a statement and no concern as to the situation, I informed her that was impossible due to the large amount that was in the account only to be told it was rejected and how was I going to pay, I asked again to try the card but she was not having it so I paid with my private acount and went 30 yds to a bank cash machine, took out $100 and proved to her that there was plenty of funds, again she was not interested, I spent the evening annoyed and went to see the manager in the morning and surprise surprise, they are family !!!! I will not return on principal and will report them to Days InnMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I have stopped using Days Inn where possible as it is a roulette game on quality, this one was fine, decent internet, good nights sleep and reasonably furnished, where it was a disaster was the reception, awful, unprofessional and a complete lack of customer care. I handed my company debit card and instantly told it was rejected, no thought of delivering a statement and no concern as to the situation, I informed her that was impossible due to the large amount that was in the account only to be told it was rejected and how was I going to pay, I asked again to try the card but she was not having it so I paid with my private acount and went 30 yds to a bank cash machine, took out $100 and proved to her that there was plenty of funds, again she was not interested, I spent the evening annoyed and went to see the manager in the morning and surprise surprise, they are family !!!! I will not return on principal and will report them to Days InnMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r184922834-Motel_6-Alvarado_Texas.html</t>
@@ -246,9 +318,6 @@
     <t>I stay at this location every month because my husband is located in a facility nearby. I travel alone most of the time and I feel very safe at this location. It is in a perfect location to restaurants, the highway, and not very far from nearby attractions. The cleanliness of this location meets my standards and I do not have to worry about leaving my personal items behind while I am out of the room. I have never had any problems with my belongings missing or have had any problems with the staff addressing small issues in a timely matter. Small issues such as the fire alarm running out of batteries or turning on the heater for the first time and having the fire alarm set off. I look forward to staying hear for as long as my husband is located nearby. I get more for the price I pay and the staff is very friendly.More</t>
   </si>
   <si>
-    <t>Michael G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r180694522-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -267,15 +336,9 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Calling 1-800 Days Inn was not good, very slow but when I called Alvarado direct my reservations were confirmed very fast and correct. Arrival / Check In was fast and courteious very clean lobby and room was very functional for work environment.Will stay here again on future business trips.THANKS,MikeMore</t>
   </si>
   <si>
-    <t>Brett B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r178351638-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -288,7 +351,43 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Dean W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r175000191-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>175000191</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Very nice motel! Clean room &amp; well made bed. The night clerk was helpful &amp; made me feel at home.... which was nice after a 700 mile journey! The pool looked inviting tho it was too late &amp; I was too tired. No complaints.... only compliments!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Very nice motel! Clean room &amp; well made bed. The night clerk was helpful &amp; made me feel at home.... which was nice after a 700 mile journey! The pool looked inviting tho it was too late &amp; I was too tired. No complaints.... only compliments!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r173798608-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>173798608</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Really nice for the price</t>
+  </si>
+  <si>
+    <t>Very nice staff great free breakfast very clean rooms I have made this my number 1 place to stay and I travel here a lot always friendly and clean. The pool is great way to refresh and no worries about the other travelers nice clean place nice neighborhood...MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice staff great free breakfast very clean rooms I have made this my number 1 place to stay and I travel here a lot always friendly and clean. The pool is great way to refresh and no worries about the other travelers nice clean place nice neighborhood...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r172444337-Motel_6-Alvarado_Texas.html</t>
@@ -306,15 +405,9 @@
     <t>Excellent hotel. I stayed 1 nite in the middle of the week to find out how they treat you at check inn  and at check out. Excellent service. Clean room and working plumbing. Noise level very good too. Yes the lobby stinks to high hell of India but your stay isn't in the lobby. It's the room and it smells good. I came back 2 days later and stayed 4 more days. Just as good. The only reason I didn't put 5 star was cause the curtain covers the a/c vent so the air blows up the curtain then into the room. I fixed it with a clamp but how many people carry clamps. It says truck parking but I wouldn't recommend it. Pretty tight for a 53' trailer. Has a dairy Queen in front of the hotel and a Sonic.MoreShow less</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>Excellent hotel. I stayed 1 nite in the middle of the week to find out how they treat you at check inn  and at check out. Excellent service. Clean room and working plumbing. Noise level very good too. Yes the lobby stinks to high hell of India but your stay isn't in the lobby. It's the room and it smells good. I came back 2 days later and stayed 4 more days. Just as good. The only reason I didn't put 5 star was cause the curtain covers the a/c vent so the air blows up the curtain then into the room. I fixed it with a clamp but how many people carry clamps. It says truck parking but I wouldn't recommend it. Pretty tight for a 53' trailer. Has a dairy Queen in front of the hotel and a Sonic.More</t>
   </si>
   <si>
-    <t>orlandomanagua</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r170469112-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -336,9 +429,6 @@
     <t>My wife and I recently had vehicle trouble on I-35W near Alvarado. There were no taxis in the area to give us a ride to a motel, so we called the Days Inn and they were more than happy to come pick us up. The gentleman who gave us a ride refused pay and was very polite and friendly. Once at the motel we were impressed with the reasonable prices and clean rooms. The breakfast was hot and included in the room fee. Overall, we feel that the nice people at the Alvarado Days Inn went above and beyond their duty to help us when we were in need. For this we are very grateful. If you ever want to stay somewhere near Fort Worth where you know the owners are good, people. Make sure to take exit 26A on Interstate 35W and get a room here. You won't be disappointed.More</t>
   </si>
   <si>
-    <t>CheerRah22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r169735431-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -348,7 +438,34 @@
     <t>07/29/2013</t>
   </si>
   <si>
-    <t>Charles V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r163088642-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>163088642</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r159746798-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>159746798</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>good value cheap hotel</t>
+  </si>
+  <si>
+    <t>we just needed a no frills place to spend the night that included a simple breakfast. the staff were very nice and we had no problems with our visit. surrounded by cheap eating options, which suited us fine. the rooms were old but freshly painted and very clean</t>
+  </si>
+  <si>
+    <t>May 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r157872821-Motel_6-Alvarado_Texas.html</t>
@@ -369,15 +486,9 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>I booked my stay through Expedia and their description of the room was not accurate. I spent 2 hours on the phone with them trying to fix the problem and the manager of the hotel was kind enough to work with me and help out.More</t>
   </si>
   <si>
-    <t>Troy K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r152816402-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -396,9 +507,6 @@
     <t>More</t>
   </si>
   <si>
-    <t>JENNIFER W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r146019061-Motel_6-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -418,6 +526,18 @@
   </si>
   <si>
     <t>Upon checking in at the front desk the whole reception area reeked of curry. Very stro ng and very offensive. I stayed three nights and two of the days that I went by the front desk and reception area I could smell these odors. My bedspread also had a very stong urine odor which I had to call down and have them replace. There was only one chair in my king room which meant only one of us could watch tv from a chair, the other person had to use the bed. Very uncomfortable. TV had a lot of static and you could not watch all chanels. You guys can do better. Next time Holiday Inn for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d672792-r144091954-Motel_6-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>144091954</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
   </si>
 </sst>
 </file>
@@ -922,44 +1042,44 @@
       <c r="A2" t="n">
         <v>56721</v>
       </c>
-      <c r="B2" t="n">
-        <v>169158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -972,90 +1092,90 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56721</v>
       </c>
-      <c r="B3" t="n">
-        <v>169159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56721</v>
       </c>
-      <c r="B4" t="n">
-        <v>169160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -1070,59 +1190,45 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56721</v>
       </c>
-      <c r="B5" t="n">
-        <v>169161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>67</v>
@@ -1139,298 +1245,261 @@
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56721</v>
       </c>
-      <c r="B6" t="n">
-        <v>321</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56721</v>
       </c>
-      <c r="B7" t="n">
-        <v>21810</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56721</v>
       </c>
-      <c r="B8" t="n">
-        <v>169162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>73</v>
-      </c>
-      <c r="X8" t="s">
-        <v>74</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56721</v>
       </c>
-      <c r="B9" t="n">
-        <v>169163</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1452,122 +1521,123 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56721</v>
       </c>
-      <c r="B10" t="n">
-        <v>169164</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56721</v>
       </c>
-      <c r="B11" t="n">
-        <v>32740</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1579,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1588,158 +1658,753 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>118</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56721</v>
       </c>
-      <c r="B12" t="n">
-        <v>59410</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="X12" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56721</v>
       </c>
-      <c r="B13" t="n">
-        <v>169165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" t="s">
-        <v>117</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" t="s">
+        <v>98</v>
+      </c>
       <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>97</v>
+      </c>
+      <c r="X14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
         <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56721</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>97</v>
+      </c>
+      <c r="X22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
